--- a/Produzione/FabbricazioneCalzature_READY.xlsx
+++ b/Produzione/FabbricazioneCalzature_READY.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBook/Documents/University of Milan/Progetto Micro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Produzione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F841AE-3062-654B-9BFD-EF42382EE4D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3AEDD5-5B7B-492E-BF06-AEC90B2E1193}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="1820" windowWidth="24240" windowHeight="12980" xr2:uid="{458380DA-F305-2C43-A6F6-05C56CD69744}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{458380DA-F305-2C43-A6F6-05C56CD69744}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Data</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Calzature</t>
+  </si>
+  <si>
+    <t>Legno_carta</t>
+  </si>
+  <si>
+    <t>Metallurgico</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Chimici</t>
+  </si>
+  <si>
+    <t>Farmaceutici</t>
   </si>
 </sst>
 </file>
@@ -404,19 +419,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1FBCF2-A439-FC47-9FAF-FFFF1041DEA7}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C37"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,732 +442,1398 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43101</v>
       </c>
       <c r="B2">
-        <v>94.4</v>
+        <v>108.4</v>
       </c>
       <c r="C2">
-        <v>118.3</v>
+        <v>103.2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>96.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>112.5</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98.7</v>
+      </c>
+      <c r="G2">
+        <v>106</v>
+      </c>
+      <c r="H2">
+        <v>111.9</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43132</v>
       </c>
       <c r="B3">
-        <v>92.1</v>
+        <v>107.3</v>
       </c>
       <c r="C3">
-        <v>100.3</v>
+        <v>94.5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>97.1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>107.1</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98.4</v>
+      </c>
+      <c r="G3">
+        <v>106.2</v>
+      </c>
+      <c r="H3">
+        <v>107.7</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43160</v>
       </c>
       <c r="B4">
-        <v>109.6</v>
+        <v>107.1</v>
       </c>
       <c r="C4">
-        <v>101.8</v>
+        <v>101.4</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>97.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>108.5</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103.3</v>
+      </c>
+      <c r="G4">
+        <v>104.7</v>
+      </c>
+      <c r="H4">
+        <v>111.5</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43191</v>
       </c>
       <c r="B5">
-        <v>94.6</v>
+        <v>105.8</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>101.6</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>95.6</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>108.5</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102.1</v>
+      </c>
+      <c r="G5">
+        <v>106.4</v>
+      </c>
+      <c r="H5">
+        <v>114.2</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43221</v>
       </c>
       <c r="B6">
-        <v>102.9</v>
+        <v>107.7</v>
       </c>
       <c r="C6">
-        <v>104.1</v>
+        <v>100.3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>96.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>106.9</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102.7</v>
+      </c>
+      <c r="G6">
+        <v>107.2</v>
+      </c>
+      <c r="H6">
+        <v>109.8</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43252</v>
       </c>
       <c r="B7">
-        <v>102.8</v>
+        <v>107.1</v>
       </c>
       <c r="C7">
-        <v>99.5</v>
+        <v>99.9</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>108.3</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103.5</v>
+      </c>
+      <c r="G7">
+        <v>107.7</v>
+      </c>
+      <c r="H7">
+        <v>114.3</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43282</v>
       </c>
       <c r="B8">
-        <v>104.8</v>
+        <v>106</v>
       </c>
       <c r="C8">
-        <v>122.9</v>
+        <v>99.5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>106.7</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101.5</v>
+      </c>
+      <c r="G8">
+        <v>105.5</v>
+      </c>
+      <c r="H8">
+        <v>110.2</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43313</v>
       </c>
       <c r="B9">
-        <v>104.7</v>
+        <v>106.3</v>
       </c>
       <c r="C9">
-        <v>49.1</v>
+        <v>99.6</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>93.1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>110.7</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102.7</v>
+      </c>
+      <c r="G9">
+        <v>106.8</v>
+      </c>
+      <c r="H9">
+        <v>99.7</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43344</v>
       </c>
       <c r="B10">
-        <v>101</v>
+        <v>105.1</v>
       </c>
       <c r="C10">
-        <v>93.1</v>
+        <v>99.6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>109.2</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100.7</v>
+      </c>
+      <c r="G10">
+        <v>104.3</v>
+      </c>
+      <c r="H10">
+        <v>114.5</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43374</v>
       </c>
       <c r="B11">
-        <v>104.4</v>
+        <v>107.9</v>
       </c>
       <c r="C11">
-        <v>95.8</v>
+        <v>98.7</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>93.4</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>109.4</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103.9</v>
+      </c>
+      <c r="G11">
+        <v>106.8</v>
+      </c>
+      <c r="H11">
+        <v>108</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43405</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>108.3</v>
       </c>
       <c r="C12">
-        <v>93</v>
+        <v>96.7</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>106.4</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100.6</v>
+      </c>
+      <c r="G12">
+        <v>102.4</v>
+      </c>
+      <c r="H12">
+        <v>113.3</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43435</v>
       </c>
       <c r="B13">
-        <v>119.2</v>
+        <v>106.9</v>
       </c>
       <c r="C13">
-        <v>72.900000000000006</v>
+        <v>92.7</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>93.4</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>106.4</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100.8</v>
+      </c>
+      <c r="G13">
+        <v>105.1</v>
+      </c>
+      <c r="H13">
+        <v>111.3</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43466</v>
       </c>
       <c r="B14">
-        <v>96.6</v>
+        <v>106.8</v>
       </c>
       <c r="C14">
+        <v>96.3</v>
+      </c>
+      <c r="D14">
+        <v>95.7</v>
+      </c>
+      <c r="E14">
+        <v>103.5</v>
+      </c>
+      <c r="F14">
+        <v>101.3</v>
+      </c>
+      <c r="G14">
+        <v>105.7</v>
+      </c>
+      <c r="H14">
         <v>112.9</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43497</v>
       </c>
       <c r="B15">
-        <v>92.2</v>
+        <v>108.4</v>
       </c>
       <c r="C15">
-        <v>101.4</v>
+        <v>100.8</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>105.5</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103.7</v>
+      </c>
+      <c r="G15">
+        <v>105.4</v>
+      </c>
+      <c r="H15">
+        <v>113.8</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43525</v>
       </c>
       <c r="B16">
-        <v>102.4</v>
+        <v>111.4</v>
       </c>
       <c r="C16">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>93.5</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>105.2</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100.5</v>
+      </c>
+      <c r="G16">
+        <v>108.8</v>
+      </c>
+      <c r="H16">
+        <v>115.1</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43556</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>111.5</v>
       </c>
       <c r="C17">
-        <v>70.7</v>
+        <v>94.2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>93.9</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>104.4</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101.7</v>
+      </c>
+      <c r="G17">
+        <v>107.5</v>
+      </c>
+      <c r="H17">
+        <v>114.6</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43586</v>
       </c>
       <c r="B18">
-        <v>101.8</v>
+        <v>111.7</v>
       </c>
       <c r="C18">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>106.6</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102.6</v>
+      </c>
+      <c r="G18">
+        <v>109.4</v>
+      </c>
+      <c r="H18">
+        <v>116.1</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43617</v>
       </c>
       <c r="B19">
-        <v>103.4</v>
+        <v>110</v>
       </c>
       <c r="C19">
-        <v>93.1</v>
+        <v>95.3</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>108.7</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103.6</v>
+      </c>
+      <c r="G19">
+        <v>106.7</v>
+      </c>
+      <c r="H19">
+        <v>115.3</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43647</v>
       </c>
       <c r="B20">
-        <v>108.2</v>
+        <v>109</v>
       </c>
       <c r="C20">
-        <v>116.9</v>
+        <v>95.3</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>95.3</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>105.6</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="G20">
+        <v>107.1</v>
+      </c>
+      <c r="H20">
+        <v>110.5</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43678</v>
       </c>
       <c r="B21">
-        <v>105.9</v>
+        <v>109.4</v>
       </c>
       <c r="C21">
-        <v>50.1</v>
+        <v>93.4</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>95.3</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>101.8</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>104.6</v>
+      </c>
+      <c r="G21">
+        <v>105.2</v>
+      </c>
+      <c r="H21">
+        <v>106.6</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43709</v>
       </c>
       <c r="B22">
-        <v>100.7</v>
+        <v>111.6</v>
       </c>
       <c r="C22">
-        <v>90.9</v>
+        <v>90.7</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106.9</v>
+      </c>
+      <c r="G22">
+        <v>106.2</v>
+      </c>
+      <c r="H22">
+        <v>109.6</v>
+      </c>
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43739</v>
       </c>
       <c r="B23">
-        <v>105.7</v>
+        <v>110.1</v>
       </c>
       <c r="C23">
-        <v>82.7</v>
+        <v>89.9</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>93.1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>100.8</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>104.9</v>
+      </c>
+      <c r="G23">
+        <v>106.3</v>
+      </c>
+      <c r="H23">
+        <v>112.4</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43770</v>
       </c>
       <c r="B24">
-        <v>102.1</v>
+        <v>111</v>
       </c>
       <c r="C24">
-        <v>83.5</v>
+        <v>90.8</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>95.3</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>100.6</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>109.1</v>
+      </c>
+      <c r="G24">
+        <v>105.4</v>
+      </c>
+      <c r="H24">
+        <v>112</v>
+      </c>
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43800</v>
       </c>
       <c r="B25">
-        <v>119.1</v>
+        <v>110</v>
       </c>
       <c r="C25">
-        <v>71.2</v>
+        <v>88.7</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>91.3</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106.5</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>109.5</v>
+      </c>
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43831</v>
       </c>
       <c r="B26">
-        <v>98.5</v>
+        <v>112.1</v>
       </c>
       <c r="C26">
+        <v>85.9</v>
+      </c>
+      <c r="D26">
+        <v>92.9</v>
+      </c>
+      <c r="E26">
         <v>101</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>109.8</v>
+      </c>
+      <c r="G26">
+        <v>101.3</v>
+      </c>
+      <c r="H26">
+        <v>113.3</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43862</v>
       </c>
       <c r="B27">
-        <v>100.2</v>
+        <v>110.1</v>
       </c>
       <c r="C27">
-        <v>84.4</v>
+        <v>85.2</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>94.7</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>101.3</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105.9</v>
+      </c>
+      <c r="G27">
+        <v>101.1</v>
+      </c>
+      <c r="H27">
+        <v>115.1</v>
+      </c>
+      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43891</v>
       </c>
       <c r="B28">
-        <v>108.4</v>
+        <v>105.3</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>43.1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E28">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="F28">
+        <v>77.7</v>
+      </c>
+      <c r="G28">
+        <v>95.6</v>
+      </c>
+      <c r="H28">
+        <v>105.2</v>
+      </c>
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>1</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43922</v>
       </c>
       <c r="B29">
-        <v>108.1</v>
+        <v>105</v>
       </c>
       <c r="C29">
-        <v>7.9</v>
+        <v>25.8</v>
       </c>
       <c r="D29">
+        <v>65.7</v>
+      </c>
+      <c r="E29">
+        <v>48.3</v>
+      </c>
+      <c r="F29">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="G29">
+        <v>84.4</v>
+      </c>
+      <c r="H29">
+        <v>107</v>
+      </c>
+      <c r="J29">
+        <v>28</v>
+      </c>
+      <c r="K29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43952</v>
       </c>
       <c r="B30">
-        <v>105.9</v>
+        <v>104.4</v>
       </c>
       <c r="C30">
-        <v>53.8</v>
+        <v>61.5</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="E30">
+        <v>83.3</v>
+      </c>
+      <c r="F30">
+        <v>84.4</v>
+      </c>
+      <c r="G30">
+        <v>91.5</v>
+      </c>
+      <c r="H30">
+        <v>109.7</v>
+      </c>
+      <c r="J30">
+        <v>29</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>1</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43983</v>
       </c>
       <c r="B31">
-        <v>104.3</v>
+        <v>106.6</v>
       </c>
       <c r="C31">
-        <v>75.099999999999994</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>88.4</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>92.6</v>
       </c>
       <c r="F31">
+        <v>88.2</v>
+      </c>
+      <c r="G31">
+        <v>93.5</v>
+      </c>
+      <c r="H31">
+        <v>108.1</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44013</v>
       </c>
       <c r="B32">
-        <v>106.9</v>
+        <v>108.9</v>
       </c>
       <c r="C32">
-        <v>89.7</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>88.6</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>95.7</v>
       </c>
       <c r="F32">
+        <v>103.3</v>
+      </c>
+      <c r="G32">
+        <v>96.3</v>
+      </c>
+      <c r="H32">
+        <v>106</v>
+      </c>
+      <c r="J32">
+        <v>31</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44044</v>
       </c>
       <c r="B33">
-        <v>106.7</v>
+        <v>107.6</v>
       </c>
       <c r="C33">
-        <v>48.6</v>
+        <v>92.7</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>103.6</v>
       </c>
       <c r="F33">
+        <v>105.2</v>
+      </c>
+      <c r="G33">
+        <v>101.2</v>
+      </c>
+      <c r="H33">
+        <v>108.4</v>
+      </c>
+      <c r="J33">
+        <v>32</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44075</v>
       </c>
       <c r="B34">
-        <v>104.7</v>
+        <v>108.7</v>
       </c>
       <c r="C34">
-        <v>77.5</v>
+        <v>71</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>89.4</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>97.2</v>
       </c>
       <c r="F34">
+        <v>105.6</v>
+      </c>
+      <c r="G34">
+        <v>99.7</v>
+      </c>
+      <c r="H34">
+        <v>100.2</v>
+      </c>
+      <c r="J34">
+        <v>33</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44105</v>
       </c>
       <c r="B35">
-        <v>111.1</v>
+        <v>108.3</v>
       </c>
       <c r="C35">
-        <v>66.3</v>
+        <v>71.2</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>89.9</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F35">
+        <v>107.3</v>
+      </c>
+      <c r="G35">
+        <v>101.7</v>
+      </c>
+      <c r="H35">
+        <v>103.4</v>
+      </c>
+      <c r="J35">
+        <v>34</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44136</v>
       </c>
       <c r="B36">
-        <v>104.2</v>
+        <v>106.6</v>
       </c>
       <c r="C36">
-        <v>66</v>
+        <v>65.7</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>88.9</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>100.2</v>
       </c>
       <c r="F36">
+        <v>102.8</v>
+      </c>
+      <c r="G36">
+        <v>102.6</v>
+      </c>
+      <c r="H36">
+        <v>102.8</v>
+      </c>
+      <c r="J36">
+        <v>35</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44166</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>106.1</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>87.3</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>102.4</v>
       </c>
       <c r="F37">
+        <v>103.9</v>
+      </c>
+      <c r="G37">
+        <v>106.1</v>
+      </c>
+      <c r="H37">
+        <v>98.1</v>
+      </c>
+      <c r="J37">
+        <v>36</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>1</v>
       </c>
     </row>
